--- a/data/rfid_activos.xlsx
+++ b/data/rfid_activos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trigu\Downloads\ProyectoQA\ProyectoQA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/edcarrillo_estudiantec_cr/Documents/Tecnológico de Costa Rica/VIII Semestre/Calidad de sistemas de información/ProyectoQA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330C795-ED3A-4431-9933-3BCAE260CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A330C795-ED3A-4431-9933-3BCAE260CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D722F627-C2F0-F347-AC32-C1FF737075FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="620" windowWidth="20740" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,12 +552,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M10" sqref="A2:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -662,7 +662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -697,7 +697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -732,7 +732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>

--- a/data/rfid_activos.xlsx
+++ b/data/rfid_activos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/edcarrillo_estudiantec_cr/Documents/Tecnológico de Costa Rica/VIII Semestre/Calidad de sistemas de información/ProyectoQA/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A330C795-ED3A-4431-9933-3BCAE260CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D722F627-C2F0-F347-AC32-C1FF737075FE}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="620" windowWidth="20740" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
   <si>
     <t>rfid</t>
   </si>
@@ -34,13 +28,13 @@
     <t>fabricante</t>
   </si>
   <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>canton</t>
+    <t>fechaCompra</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
   </si>
   <si>
     <t>cliente</t>
@@ -67,103 +61,322 @@
     <t>RFID005</t>
   </si>
   <si>
-    <t>Laptop Pro 15</t>
-  </si>
-  <si>
-    <t>Impresora X120</t>
-  </si>
-  <si>
-    <t>Monitor UltraSharp</t>
-  </si>
-  <si>
-    <t>Servidor Rack 2U</t>
-  </si>
-  <si>
-    <t>Proyector HD</t>
-  </si>
-  <si>
-    <t>LP12345</t>
-  </si>
-  <si>
-    <t>IX120-9988</t>
-  </si>
-  <si>
-    <t>MU54321</t>
-  </si>
-  <si>
-    <t>SR2U-1122</t>
-  </si>
-  <si>
-    <t>PJHD-8765</t>
+    <t>RFID006</t>
+  </si>
+  <si>
+    <t>RFID007</t>
+  </si>
+  <si>
+    <t>RFID008</t>
+  </si>
+  <si>
+    <t>RFID009</t>
+  </si>
+  <si>
+    <t>RFID010</t>
+  </si>
+  <si>
+    <t>RFID011</t>
+  </si>
+  <si>
+    <t>RFID012</t>
+  </si>
+  <si>
+    <t>RFID013</t>
+  </si>
+  <si>
+    <t>RFID014</t>
+  </si>
+  <si>
+    <t>RFID015</t>
+  </si>
+  <si>
+    <t>RFID016</t>
+  </si>
+  <si>
+    <t>RFID017</t>
+  </si>
+  <si>
+    <t>RFID018</t>
+  </si>
+  <si>
+    <t>RFID019</t>
+  </si>
+  <si>
+    <t>RFID020</t>
+  </si>
+  <si>
+    <t>RFID021</t>
+  </si>
+  <si>
+    <t>RFID022</t>
+  </si>
+  <si>
+    <t>RFID023</t>
+  </si>
+  <si>
+    <t>RFID024</t>
+  </si>
+  <si>
+    <t>RFID025</t>
+  </si>
+  <si>
+    <t>RFID026</t>
+  </si>
+  <si>
+    <t>RFID027</t>
+  </si>
+  <si>
+    <t>RFID028</t>
+  </si>
+  <si>
+    <t>RFID029</t>
+  </si>
+  <si>
+    <t>RFID030</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>Proyector</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Ser1686</t>
+  </si>
+  <si>
+    <t>Lap7529</t>
+  </si>
+  <si>
+    <t>Imp2378</t>
+  </si>
+  <si>
+    <t>Lap7743</t>
+  </si>
+  <si>
+    <t>Lap5074</t>
+  </si>
+  <si>
+    <t>Ser2147</t>
+  </si>
+  <si>
+    <t>Imp2300</t>
+  </si>
+  <si>
+    <t>Ser7171</t>
+  </si>
+  <si>
+    <t>Pro3822</t>
+  </si>
+  <si>
+    <t>Mon8620</t>
+  </si>
+  <si>
+    <t>Ser9304</t>
+  </si>
+  <si>
+    <t>Imp4939</t>
+  </si>
+  <si>
+    <t>Mon2985</t>
+  </si>
+  <si>
+    <t>Mon1762</t>
+  </si>
+  <si>
+    <t>Lap8296</t>
+  </si>
+  <si>
+    <t>Imp7461</t>
+  </si>
+  <si>
+    <t>Mon2739</t>
+  </si>
+  <si>
+    <t>Lap2395</t>
+  </si>
+  <si>
+    <t>Mon6481</t>
+  </si>
+  <si>
+    <t>Imp5813</t>
+  </si>
+  <si>
+    <t>Pro6697</t>
+  </si>
+  <si>
+    <t>Mon4712</t>
+  </si>
+  <si>
+    <t>Ser3154</t>
+  </si>
+  <si>
+    <t>Pro2142</t>
+  </si>
+  <si>
+    <t>Mon4713</t>
+  </si>
+  <si>
+    <t>Ser8485</t>
+  </si>
+  <si>
+    <t>Ser2229</t>
+  </si>
+  <si>
+    <t>Lap6434</t>
+  </si>
+  <si>
+    <t>Imp4746</t>
+  </si>
+  <si>
+    <t>Ser1100</t>
   </si>
   <si>
     <t>Dell</t>
   </si>
   <si>
+    <t>Asus</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
     <t>Lenovo</t>
   </si>
   <si>
     <t>Epson</t>
   </si>
   <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2022-11-20</t>
-  </si>
-  <si>
-    <t>2023-03-15</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
-  </si>
-  <si>
-    <t>2022-09-09</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>Alajuela</t>
-  </si>
-  <si>
-    <t>Cartago</t>
-  </si>
-  <si>
-    <t>Heredia</t>
-  </si>
-  <si>
-    <t>Puntarenas</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Paraíso</t>
-  </si>
-  <si>
-    <t>Esparza</t>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-07-11</t>
+  </si>
+  <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>UCR</t>
+  </si>
+  <si>
+    <t>Cementos</t>
+  </si>
+  <si>
+    <t>Aguas de San José</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Café Britt</t>
+  </si>
+  <si>
+    <t>INS</t>
   </si>
   <si>
     <t>Banco Nacional</t>
   </si>
   <si>
+    <t>MOPT</t>
+  </si>
+  <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>UCR</t>
-  </si>
-  <si>
-    <t>MOPT</t>
+    <t>servidor.jpg</t>
   </si>
   <si>
     <t>laptop.jpg</t>
@@ -172,23 +385,17 @@
     <t>impresora.jpg</t>
   </si>
   <si>
+    <t>proyector.jpg</t>
+  </si>
+  <si>
     <t>monitor.jpg</t>
-  </si>
-  <si>
-    <t>servidor.jpg</t>
-  </si>
-  <si>
-    <t>proyector.jpg</t>
-  </si>
-  <si>
-    <t>fechaCompra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,21 +458,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,7 +502,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -337,7 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,10 +570,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,16 +745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="A2:M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,200 +766,982 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>8.648095982874079</v>
+      </c>
+      <c r="G2">
+        <v>-83.73422215451265</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2">
-        <v>1500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="I2">
+        <v>2682</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>9.66476755630492</v>
+      </c>
+      <c r="G3">
+        <v>-83.60864026397024</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3">
-        <v>600</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="I3">
+        <v>3760</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>9.936870483057699</v>
+      </c>
+      <c r="G4">
+        <v>-83.24460629558965</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>300</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="I4">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>8.391659697604995</v>
+      </c>
+      <c r="G5">
+        <v>-83.1757621674498</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>5000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I5">
+        <v>1574</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>10.25489325497851</v>
+      </c>
+      <c r="G6">
+        <v>-83.0847209579649</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6">
+        <v>1066</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>11.00098763243626</v>
+      </c>
+      <c r="G7">
+        <v>-82.48088590190869</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7">
+        <v>4405</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <v>10.9938002660345</v>
+      </c>
+      <c r="G8">
+        <v>-82.76849073978178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>2934</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>8.362647280788314</v>
+      </c>
+      <c r="G9">
+        <v>-82.60047134723389</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>8.214068223634941</v>
+      </c>
+      <c r="G10">
+        <v>-83.54146351366171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>139</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <v>9.516712090383992</v>
+      </c>
+      <c r="G11">
+        <v>-82.40371033704683</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <v>4407</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>8.346347538953188</v>
+      </c>
+      <c r="G12">
+        <v>-82.73732785586918</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12">
+        <v>1343</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <v>10.43094795485797</v>
+      </c>
+      <c r="G13">
+        <v>-82.25613032128818</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>199</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14">
+        <v>10.58490139291801</v>
+      </c>
+      <c r="G14">
+        <v>-83.38558244457126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <v>3691</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>10.3397435118732</v>
+      </c>
+      <c r="G15">
+        <v>-82.78204125902597</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15">
+        <v>4477</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16">
+        <v>10.83277427734808</v>
+      </c>
+      <c r="G16">
+        <v>-84.2476330640898</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16">
+        <v>4694</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>11.01518544170871</v>
+      </c>
+      <c r="G17">
+        <v>-82.94248396783814</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17">
+        <v>4275</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <v>8.473726483705091</v>
+      </c>
+      <c r="G18">
+        <v>-83.00421109249884</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18">
+        <v>1785</v>
+      </c>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>9.435528205846088</v>
+      </c>
+      <c r="G19">
+        <v>-83.78873284094163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19">
+        <v>4044</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <v>8.636433446511939</v>
+      </c>
+      <c r="G20">
+        <v>-82.49236821386829</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20">
+        <v>1722</v>
+      </c>
+      <c r="J20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21">
+        <v>8.928930307291655</v>
+      </c>
+      <c r="G21">
+        <v>-82.04617728857733</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>1244</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22">
+        <v>9.986417346442792</v>
+      </c>
+      <c r="G22">
+        <v>-82.41443598927917</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22">
+        <v>4165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>8.824421659851346</v>
+      </c>
+      <c r="G23">
+        <v>-83.61039151219093</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23">
+        <v>4894</v>
+      </c>
+      <c r="J23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24">
+        <v>11.03763140260741</v>
+      </c>
+      <c r="G24">
+        <v>-84.29933219605721</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>2979</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25">
+        <v>11.14347033594523</v>
+      </c>
+      <c r="G25">
+        <v>-83.3475120552546</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>4855</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26">
+        <v>9.423498340469262</v>
+      </c>
+      <c r="G26">
+        <v>-83.34617938950844</v>
+      </c>
+      <c r="H26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26">
+        <v>864</v>
+      </c>
+      <c r="J26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27">
+        <v>8.533952243522222</v>
+      </c>
+      <c r="G27">
+        <v>-83.4317977114068</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27">
+        <v>286</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28">
+        <v>8.701212928004239</v>
+      </c>
+      <c r="G28">
+        <v>-83.58726873744169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28">
+        <v>2781</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>11.42460754530445</v>
+      </c>
+      <c r="G29">
+        <v>-84.19845770509717</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29">
+        <v>2399</v>
+      </c>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30">
+        <v>10.54327485581817</v>
+      </c>
+      <c r="G30">
+        <v>-84.03057117025627</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30">
+        <v>3063</v>
+      </c>
+      <c r="J30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6">
-        <v>1200</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>9.377247973297916</v>
+      </c>
+      <c r="G31">
+        <v>-83.8195525210938</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>318</v>
+      </c>
+      <c r="J31" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
